--- a/planilhaAlunos.xlsx
+++ b/planilhaAlunos.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inconsistencias" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,303 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>arthur</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bruno</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>roger</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>alan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.215</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kaio</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.325</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>floyd</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>carlos</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>gabriel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>chelsea</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ice T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ice blue</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
